--- a/data/qna/유아교육과.xlsx
+++ b/data/qna/유아교육과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,70 +458,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>학과 분위기 어떤가요</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>안녕하세요!</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>동의대가 1지망이라 넣을수 있는거 다 넣긴 했는데…
+동의대식 3.16인데 경쟁률이 높아서
+1.교과(일반) 
+2.교과(농어촌(정원외)) 
+3.종합(학교생활우수자)
+세개 중에 하나는 붙을수 있을까요…?
+안되면 정시공부 하려구요…🥲
+답변 부탁드립니다..! :)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>차 ㅅㅈㄴㅍ ㄹ ㄱㅐ점 초 ㅎㅎㄹㄹㅛㅎ ㅗ  파 ㅍㅋ 포 ㅍ 추</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>동의대 졸업 9호봉 맞나요?</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>유교과 질문</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>유교과 등급 컷 이랑 학과 분위기 등 수능 최저 등등 
+다 알려주세요..</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>등급컷이랑 최저는 모집요강 보세요^^</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3.42 합격 가능성</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>복수전공 가능한가요?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>유아교육과인데 청소년상담학과 복수전공 가능한가요?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>네 복수전공 원하시면 얼마든지 가능해요!</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>저 가능할까요..? ㅠㅠㅠ</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>동의대 졸업 9호봉 맞나요?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>졸업한 후 취업하면 9호봉 맞나요?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>네 동의대 유아교육과는 사범 계열로 인정해주기 때문에 9호봉부터 시작 맞습니다!</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>동의대 유교과 종합</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수능 최저 말씀하시는 거면 종합에는 최저를 포함하지 않습니다!</t>
+          <t>3.42 합격 가능성</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>동의대식 3.42 인데 교과전형 적정라인으로 합격 가능한가요?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>답변 없음</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>유아교육과 임용 고시 도와주나요?</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
+        <is>
+          <t>저 가능할까요..? ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>내신이 4.68인데 생기부 1학년때부터 꾸준히 유아교육으로 맞춰왔고 부반장,반장,학생회,동아리기장 등등 활동도 열심히 하고 컨설팅 받으면 일반고 학생들중에서 정말 잘 되어있다는 소리 많이 들었어요 !
+학교생활우수자 전형으로 가능할까요..?
+면접도 잘 볼 자신 있습니다 !! ( 약간 체질이에요! )</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
@@ -520,154 +600,155 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>교과로 가고 싶은데</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>안됩니다 절대 안돼요 3은 받으셔야돼요</t>
+          <t>동의대 유교과 종합</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>동의대 종합 면접전형으로 최저 몇등급해야되는디
+알려주세요!</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>수능 최저 말씀하시는 거면 종합에는 최저를 포함하지 않습니다!</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>대학 분위기 어떤가요</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>동의대식3.25</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>동의대식 3.25 나오고 교과 넣으려고 하고있어요
+최초합 가능할까요???
+안된다면 추합 가능성은 얼마정도 있나요??</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>최초합은 어려울 수 있으나 최저를 맞춘다면 추합 가능할 수 있어요 :)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>동의대식3.25</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>최초합은 어려울 수 있으나 최저를 맞춘다면 추합 가능할 수 있어요 :)</t>
+          <t>동의대식으로 4이면 유교과 힘들까요…?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>아직 내신 점수가 나온건 아닌데 동의대식으로 아마 4 뜰것 같거든요… 이 점수로는 힘들겠죠…?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>생기부 잘 채우셨으면 학종으로 넣어보시는 거 추천해요!</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>동의대식으로 4이면 유교과 힘들까요…?</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>생기부 잘 채우셨으면 학종으로 넣어보시는 거 추천해요!</t>
+          <t>유아교육과 내신 질문이요 ㅠ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>한국사 내신 8등급9등급 있어도 갈수있나여.?.?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>저희 학교는 잘한 것만 뽑아서 내신 산출하기 때문에 다른 등급이 커버해주면 충분히 오실 수 있어요 :)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>고1때 이수한 과목 진로과목에 반영할수 있나요?</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
-동의대학교 입학홍보대사 김현아 입니다~!
-질문자님께서 동의대학교 진로선택과목에 대한 질문을 주셨는데요 !
-저희 동의대학교는 힌의예과를 제외한 모든 학과에서는 &amp;lt;국어, 수학, 영어, 한국사, 사회(역사/도덕 포함),
-과학교과&gt; 중 최대 2과목 이내 반영이 가능합니다 ~!
-또한, 한의예과에서는 &amp;lt;국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과&gt;로 전 과목을 반영하고 있습니다
-*진로선태과목 성취도에 따른 석차등급 산출방법으로
-A=1등급 , B=3등급, C=5등급 으로 나뉘어져 있습니다!
-답변이 도움이 되셨길 바라며 , 
-더 궁금한 점이 있으시다면 동의대학교 입학홍보대사 공식 인스타그램이나 오픈채팅방을 통해 문의주시면
-친절히 답변해 드리도록 하겠습니다 !감사합니다🤍</t>
+          <t>유아교육과 질문입니다!!</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>유아교육과를 희망하는 고등학교1학년인데 2-2는 선택과목으로 수2랑 확통을 들으려하는데 선택과목은 1학기2학기 두개씩 들어야하는데 뭘듣는게 좋을까요..? 1학기는 생윤이랑 지구과학 듣고싶은데 2학기는 뭘해야할지 모르겠어요..!! 어떤과목듣는게 좋을까요.?.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>아무거나 들어도 상관 없어요! 잘할 거 같은 거로 고르세요</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>유아교육과 내신 질문이요 ㅠ</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>저희 학교는 잘한 것만 뽑아서 내신 산출하기 때문에 다른 등급이 커버해주면 충분히 오실 수 있어요 :)</t>
+          <t>복수전공될까요?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>중국어학과 가려고 하는데 유치원교사도 생각 중이라 복수전공될까요ㅠㅠ?</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>유교는 복수전공, 전과 안 됩니다 성의</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>유아교육과 질문입니다!!</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>아무거나 들어도 상관 없어요! 잘할 거 같은 거로 고르세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>복수전공될까요?</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>유교는 복수전공, 전과 안 됩니다 성의</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>유교</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>안녕하십니까 언제나 너의 곁에 we-deu💙
-동의대학교 입학 홍보대사 서희진입니다 
-동의대학교 유아교육학과가 사범계열인지 궁금하셨군요!
-유아교육학과는 사범계열에 해당하고있습니다☺️
-파란색으로 ‘교직’ 이라고 적혀 있는 학과는 모두 교직이수가 가능하다고 보시면 됩니다!
-더 궁금하신 점 있으시면 위듀카페 or 인그타그램
-카카오톡 오픈채팅을 통해 연락 주시면 빠르게 답변드리겠습니다.
-(카카오톡 오픈 채팅방에 동의대학교 입학홍보대사 서희진을 검색해주세요)
-💗여러분들의 반짝반짝 빛나는 꿈을 we-deu가 응원하겠습니다💗</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>동의대 주차비 내야하나요?</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
-동의대학교 재학생은 주말, 공휴일, 방학 기간에는 모바일학생증을 이용하여 무료로 주차를 할 수 있습니다.
-이외에는 동의대 입구 진입 후 20분 내로 나가게 되는 경우는 회차차량으로 인식하여 무료입니다. 20분 이후부터는 10분당 900원입니다.
-또 궁금한 것이 생겼을 때 언제든 질문 주시면 친절하게 답변드리겠습니다!
-🎀 인스타그램 - @we_deu_
-🎀 오픈채팅방 - 동의대학교 입학홍보대사 박라온
-WE-DEU는 항상 여러분의 반짝반짝 빛나는 꿈을 응원합니다, 감사합니다 ♥</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
           <t>유아교육과 작년 커트라인 궁금해요..!</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>유아교육과 작년 커트라인 궁금해용</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
 &amp;lt; 22학년도 유아교육과 수시 학생부교과(일반고교과) &gt;
@@ -685,25 +766,23 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>발표, 팀플, 성비</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>일단 거의 모든 수업이 팀플과 발표 라고 생각하시면 됩니다.  성비는 보통 8:2 나 7:3 인것 같구요. 교직이수 하려면 특정 과목을 필수로 모두 들어야하며 교직이수 인원이 작아 경쟁이 많이 심한 편입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>유교과 수업은 어디서 하나용?</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>합격했는데 수업 어디서 하는지 궁금해요!!</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다  ♡〜 ˃́▿˂̀ 〜♡ 
@@ -720,13 +799,23 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>유교과 등록금이 얼마인가욧</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>궁금합니당</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다♡〜 ˃́▿˂̀ 〜♡ 
@@ -744,13 +833,23 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>수능 최저</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>유교과 수능 최저 있어요?</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다♡〜 ˃́▿˂̀ 〜♡
@@ -769,13 +868,23 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>정시</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>생기부 반영하나요?</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE-DEU ! 
 동의대학교 입학홍보대사 김유정입니다💙
@@ -793,13 +902,23 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>정시 발표</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>언제인가요</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE-DEU ! 
 동의대학교 입학홍보대사 김유정입니다💙
@@ -821,87 +940,114 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>창원대 유교과랑 동의대 유교과</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>타 대학 언급 죄송합니당... 근데 너무 급해서요 ㅠㅠ
+둘 중 임용에 더 도움될 대학이 어디 일까요?</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>창원대 가세요 성의성의성의성의성의ㅅㅇ</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>동의대 유교과 vs 경남대 유교과</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>동의대 유교과 vs 경성대 실건</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>다들 유교과 임용칠거 아니면 가지 말라하고 요즘 티오도 많이 안나고 비전이 없다면서 안좋다는 사람이 많아서
+경성대 실건도 적성에 맞을것같은데 골라주세여</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>집 가까운 곳 가세요 그게 최고입니다</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>타대학 언급 죄송합니다 동의대vs인제대 유아교육과</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>동의대 인제대 유교과 최초합 했습니다! 오늘 최종 등록일인데 동의대를 넣긴 하였으나 조금 걱정이 되네요ㅠ 재학생분들이 생각하시기에는 어디가 낫다고 생각하시나요? 거리는 상관 없습니다!</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>비교불가능할것 같습니다! 유교과는 특히 그렇죠 ㄹ단 교수진을 보세요....</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>동의대 유아교육과</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>합격 축하드립니다! 결론만 먼저 말씀드리면 잘할 수 있어요!
- 그런데 유아교육과는 학년당 정원이 20명정도 되는 소수학과고 비교적 성적욕심, 수업참여도가 높은 여학생들이 많고, 다들 열심히 하는 분위기라 전공(같은 과 학생만 듣는 수업)학점 잘 받고 싶으시면 1학년부터 정말 열심히 하셔야 해요! ㅠㅠ 
-출석은 물론이고 수업태도도 좋아야하고요… 그리고 단순 암기보다는 배운걸 활용해야하는 부분이 더 크고 시험문제를 집어주지 않으시는 교수님들이 계셔서 고등학교 시험과는 달라 조금 힘드 실 수는 있지만 본인이 열심히하고자 노력하는 부분만 있으면 성적 좋게 받을 수 있어요!!! 걱정하지마시고 열심히 하시면 분명 좋은 성적 나올 수 있을겁니다✨</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>동의대 vs 동명대 유아교육과 어디가 더 좋나요</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>동의대 유아교육과 나오면 유치원정교사2급이랑 보육교사 자격증 그냥 주나요? 
+동의대랑 동명대 유아교육과는 약간 비슷비슷한것 같은데 어느 대학교를 가는게 낫나요?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>유아교육과는 아닌데 입결도 그렇고 동의대가 낫지 않나용? 동의대 오세용</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>면접</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>자기소개 준비해야겠죠?</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다🤍
@@ -917,37 +1063,46 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>유아교육과 과잠 노란색인가요</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>노란색 아니고 연핑크색인 걸로 알아요!! 이쁘던데!</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>안녕하세요 23학년도 합격생입니다</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>동의대에서 임용 준비 하시는 분들 계시나요..? 
+동의대는 비사범 대학인데 사범대학이랑 차이점이 뭔가요??</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>임용준비하는 사람 많아요! 그리고 제가 알기로 공립 경력 오래된 교수님도 계시고 출제 자주 들어가는 교수님도 계셔서 도움이 될꺼에요! 출제 자주들어가시는 교수님은 시험문제도 임용식으로 내세요. 그리고 비사범대학이지만 사범계열 학과여서 차이가 없는걸로 알고있어요. 합격생이시면 교수님들께 직접 여쭤봐도 대답 잘해주실듯해요!</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>유아교육과 학교생활우수자전형 언제 나와요?</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1단계 발표 언제쯤 나올까요?? ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다🤍
@@ -965,13 +1120,23 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>유아교육과</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>동의대학교 유아교육과 학생부 교과 일반고 전형 작년 등급컷이 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE-DEU!
 동의대학교 입학 홍보대사 조채은입니다💙
@@ -984,13 +1149,23 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>면접 질문</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>면접 질문이 나와있다던데 저는 찾아봐도 없는데 어디 있나요</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다🤍
@@ -1012,25 +1187,23 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>동의대 학생분들 잠시 시간좀 내주시겠어요..?</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>아마도.....?? 근데 혹시모르니까 안정권인곳도 쓰세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>최저</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>유아교육 최저 몇이에요???? 제가 수능은 좀 약해서 교과로 갈거에요.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>안녕하십니까! 언제나 너의 곁에 WE-DEU 동의대학교 입학 홍보대사 전보라입니다.
      동의대학교 일반고 교과전형 유아교육학과 최저가 궁금하셨군요:)
@@ -1046,13 +1219,23 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>유아교육과 합격</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>교과만 바라보고 있는데 동의대식으로 하면 2.8인데 최초합 될까요 ㅠㅠㅠㅠ ??????</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다🤍
@@ -1072,35 +1255,24 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>평교과</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>안녕하십니까 언제나 너의 곁에 WE-DEU!
-동의대학교 입학 홍보대사 조채은입니다💙
-동의대학교 평생교육 • 청소년 상담학과에 대해 관심가져주셔서 정말 감사합니다 !
-먼저 일반고교과전형의 전년도 전형결과는
-최초합격자 평균 2.10 / 표준편치 0.70 이고, 
-최종등록자 평균 4.11 / 표준편치 0.50 입니다!
-다만, 매년 어떤 성적대의 학생들이 지원할지 예측할 수 없으므로 합격등급선에 대한 것은 유동적일 수 있음을 참고해주시기 바랍니다.
-동의대학교 WE-DEU는 질문자님의 반짝반짝 빛나는 꿈을 응원하겠습니다.✨
-더 궁금하신 점이있으시면 카카오톡 오픈채팅 링크
-   https://open.kakao.com/o/sWaPJQke
-&amp;lt;동의대학교 입학홍보대사 조채은으로 검색해주세요◡̈ &gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>2023년 유교과</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>제가 수시등급 4.5정도 나오는데 들어갈 수 있을까요..?
+농어촌, 특성화고 전형 가능해요</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
 동의대학교 유아교육과에 지원 가능한 수시 전형은 총 6개입니다.
@@ -1133,13 +1305,23 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>유아교육 3.08 교과전형</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>동의대식 3.08입니당 교과전형으로 가능성 있나요?</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE_DEU
 동의대학교 입학홍보대사 오다연입니다💙
@@ -1157,46 +1339,23 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>내신 성적 이정도면 합격 가능 할까요?</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>안녕하세요. 언제나 너의 곁에 WE-DEU!
-동의대학교 입학홍보대사 김근희입니다 :)
-2022학년도 동의대학교 평생교육∙청소년상담학과 일반고교과전형 결과는 아래와 같습니다.
-최초합격자 석차등급 평균(표준편차) : 2.10(0.70)
-최종등록자 석차등급 평균(표준편차) : 4.11(0.50)
-최초합격자는 최초로 합격한 학생이며, 최종등록자는 추가합격을 포함하여 최종 등록한 학생을 말합니다.
-지원자는 매년 달라지기에 정확히 예측하기는 어렵습니다. 작년 전형 결과를 참고하여 좋은 결과 있기를 응원하겠습니다.
-더 궁금한 점은 동의대학교 입학홍보대사 카페, 페이스북, 인스타그램(@we_deu_), 오픈 카카오톡을 통해 질문해주세요 :)
-🏷오픈 카카오톡 링크
-https://open.kakao.com/me/wedeu</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>평교과 꼭 들어가고싶은데</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>무조건 지금은 넣고 지켜봐야죠! 입시  것이 모든 학교가 낮아지는추세니</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>동의대학교 면접</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>동의대학교 면접보고 들어가려고 하는데 혹시 면접이 어떻게 진행되나요??</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
 면접을 진행하는 전형은 학교생활우수자(면접)전형, 조기취업형계약학과전형, 성인학습자전형, 성인학습자(정원외)전형, 재직자전형, 체육특기자전형이 있습니다.
@@ -1218,49 +1377,67 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>전문상담교사</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>네네! 교직이수하시면 취득 가능합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>유교과 학교생활우수자전형 질문이요!</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>동의대식으로 3.58나오는데 교과로 가기에는 너무 빠듯하고 면접은 널널한데 제가 이과에서 유교로 틀어서 가는거라 학종이 부족해요.. 1,2학년 전부 환경, 생명관련이라서.. 성적이 남아도 학종은 좀 힘들겠죠..?ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>올해는 2점 후반까지 합격한거 같은데 작년에는 3.8까지 붙은 거 같아요 입시는 매년 다르니까 교과 꼭 넣어보세요!!!</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>유교과 합격 가능할까요?</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>23년도 동의대 식으로 3.58정도 나오는데 3점대 까지는 아슬하게라도 합격 가능할까요..?ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>입시는 어찌될지 모르니 지원하고 보는게 좋다 생각함. 동의대 유교 좋아요!</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>수능 최저</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>동의대 유아교육 수능 최저 있나요?? 작년 등급컷도 좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 we deu, 
 동의대학교 입학홍보대사 복세인입니다 :)
@@ -1275,38 +1452,76 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>유아교육과 입시 질문이요 !</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>안녕하세요 ! 
+유아교육과 교과로 지원 하려고 하는데요
+제 내신이 4.17인데 소신 떠서요 ..
+혹시 추가 합격이라도 붙을 수 있을까요 ..? 
+많이 어려울까요 ? ..
+모의고사는 영어 3 사탐 4 나옵니다 !</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>교과 전형은 어려울거 같아요ㅠㅠ 교과는 3점대까지만 합격해요 다른 전형 추천해요!</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>제 성적으로 동의대 유교과 갈 수 있을까요 ..?</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>내신 등급 4.58인데 농어촌이랑 특성화 복수지원 할건데 가능할까요 …?</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>아슬아슬함 분발하셈 
 4.대 초반이면 가능함</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>예비 15번,,,</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>붙으려나요?ㅠㅠ 
+작년에는 4명 모집에 8순위까지 빠졌더라고요...ㅠ
+올해는 3명 뽑는데,,,,,,,,,
+다른 붙은 학교 등록기간, 긱사 신청 기간 후에 동의대 충원 모집이라 판단 잘 해서 선택해야할 것 같은데 너무 어렵네요ㅠ</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>안녕하십니까!! 언제나 너의곁에 ❤we-deu❤
 동의대학교 입학홍보대사 전상오입니다.
@@ -1329,194 +1544,111 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>학종 면접</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>공통 질문 3개외에 생기부 기반 질문이 나오는지 궁금해요 ㅠㅠ!! 면접보셨었거나 아시는 분들 알려주세용</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>동의 동명 유교</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>현재 부산에는 부산대 부경대 신라대 말고는 사범으로 인정되는 유교과가 없는 것으로 알아요 ! 사범계열의 유교가 아닌 경우 8호봉으로 시작합니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>상담교사를 꿈꾸고 있는데요 !</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>전문상담교사가 되려면 교직과정을 이수해야해요. 
-그런데 이 과정은 희망하는 누구나 할 수 있는 게 아니라 학년마다 성적 우수자 중에서 신청을 받고, 그 사람들끼리 성적으로 경쟁해서 보통 4명 정도가 최종적으로 교직이수를 할 수 있어요! 학년마다 4명이면 많은 건 아니예요ㅠㅠ
-그런데 그 4명이 모두 임용고시에 합격한다는 보장도 없어요! 임용고시 준비하다가 어려워서 포기하는 경우나 대학원 진학을 하게 된다 등의 문제가 존재하거든요. 
-전문상담교사로 계신 분이 막 많지는 않아요ㅠㅠ
-그치만 본인이 상담교사가 되고 싶다는 의지 + 노력이 충분하다면 되실거예요~  
-화이팅하세요 !!</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>교직이수 !</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>19학번 20학번은 교직이수 진행하고 있는 상태입니다!! 자세한건 학과 사무실로 전화하셔서 물어보시는게 좋을 것 같아요ㅠㅠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>청소년상담사</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>이 학과는 크게 평생교육이랑 상담 두 가지 분야로 배우는 것 같아요!! 3급 따긴 힘들겠지만, 합격률이 그렇게 낮진 않은 걸로 알고 있어요. 충분히 공부하면 딸 수 있어요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>정시로</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>음 최초합일진 모르겠는데 합격 하실듯요 !! 사탐은 ㄱㅊ은데 남은 기간에 영어라도 쫌 올려보세요 !!</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>동의대 유아교육과는 사범계열이면</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
-동의대학교 입학홍보대사 김유정입니다🤍
-동의대학교 유아교육과는 인문사회과학대학 소속 사범계열로 9호봉부터 시작합니다-!
-혹시 동의대학교 입학전형에 대해 더 궁금한 점이 있으시다면 언제든 편하게 질문해주세요 ! 
-최선을 다해 도와드리겠습니다☺️
-⭐️여러분의 반짝반짝 빛나는 꿈을 WE-DEU가 항상 응원하겠습니다 ⭐️
-🏷 오픈카카오톡링크
-https://open.kakao.com/o/sCamfmdd
-( 오픈카톡 검색창에 ‘동의대학교 입학홍보대사 김유정’을 검색해주세요! )</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>사범계열</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>네 동의대 유일 사범계열이에요~ !!</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>동의 유교과 vs 경성 유교과</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>어디가 더 좋나용??</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>4년제 유교는 정교사 자격증 2급 나오는거 똑같아서 그냥 가까운 학교 가세요!</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>유아교육 수업</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>아무래도 사범계열이라 과제나 그런 부분에선 빡세다고 느낄 순 있는데 취업률도 높고 유치원교사가 목표라면 오시는게 좋아요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>군기</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>군기? 는 전혀 없고 분위기 좋아요~~</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>유아교육과, 아동학과 차이</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>도저히 모르겠네요… 인터넷에서 이리이리 다르다곤 하는데 솔직히 크게 다른거 같진 않아서 유교과 재학생 관점에서 큰 차이점 몇개만 알려주시면 감사하겠습니다!</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>유아교육은 임용고시를 봅니다! 임용을 통해서 유치원 정교사 자격증을 획득해요. 사범계열에 속한다고 보시면 쉬워요. 아동학과는 가정계열이라 임용고시를 볼 수 없어요. 대신 보육교사자격증을 획득합니다. 유치원 정교사 자격증은 유치원, 어린이집 두군데 다 취직이 가능하지만 보육교사 자격증은 어린이집에만 취직이 가능해요. 유치원은 교육부, 어린이집은 보건복지부 관할인 점에서도 두 학과는 차이가 존재해요! 개인적으로 유아교육과는 유치원 어린이집 등 실습 위주로 돌아가는 거 같고 아동학과는 현장 실습보다 아동 심리학, 상담 등 학문적인 분야에서 더 공부하는 거 같아요. 이해가 되셨으면 좋겠습니다!</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>교과 합격 가능할까요?</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>동의대식 3.7나오는데 최종합격자 평균 안에는 들어가거든요. 작년 사례등급 봤을때는 최초합 끝, 추합은 되는거 같은데 여기 질문들 보니까 제 성적은 안될거 겉아서요ㅠㅠ 적정으로 뜨긴 하던데ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>동의대 유교과 등록금</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>동의대 유아교육과는 인문사회대를 기준으로 한 학기당 2,699,000원입니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>유교과 교과 성적</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>동의대식 2.75인데 어려울까요?</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>안녕하십니까!! 언제나 너의곁에 ❤we-deu❤
 동의대학교 입학홍보대사 전상오입니다.
@@ -1538,13 +1670,24 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>합격가능성</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>동의대식으론 3.08 , 전체교과는 4.2 입니다. 생기부는 유아교육으로 맞춰놨구요, 
+일반교과전형, 농어촌교과, 학생부종합 중에 가능성 큰곳이 어딘가요? 그리고 합격이라도 할 수 있을까요 ...?</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다🤍
@@ -1572,49 +1715,90 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>이정도 성적 유아교육학과</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>어디 갈수 있는곳 추천 해주세요</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>전문대도 힘들지 않나…? 유아교육과 좀 빡센데</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>유아교육학과</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>가고싶은데ㅠ 대학추천 갈수있는곳
+알려주세요</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>제 친구가 그 정도 성적대였는데 동명대 마지막에 추추추추추합 정도로 아슬아슬하게 들어갔었어요 그렇게 들어가는 거 아니면 전문대 밖에 없을 거 같네요…</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>내신 정시</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>내신이랑 정시 등급 어느정도 되야 들어갈수있나요?</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>입시자료보세요! 그게 가장 정확하답니다! 매년 바뀌니 참고하시구요!</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>동의대식으로 4.08인데 어려울까요??</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>유교과 지원하고 싶은 남학생인데 동의대식으로 4.08이면 어려울까요??</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE-DEU💙
 동의대학교 입학홍보대사 김유정입니다!
@@ -1633,305 +1817,293 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>1학년 교양 영어 어떤가요..?</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>아니용 저도 인사대인데 교수님마다 다르겠지만 지금 하는 교재는 진짜 중학교수준이에요....시험은 스피치로 쳐서 외우기만 하면 됐구요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>교과전형 추합 어려울까요??</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>재수라서 수시 성적을 이젠 뒤집지는 못하는데 동의대식 3.0으로 교과전형 추추추합이라도 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>넹 아마도 될 것 같아요 저도 3초중반이었어요</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>정시등급</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>유아교육과 정시등급은 어느정도 나와야하나요??
+ 무슨 과목 보나요??</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>교과전형 추합 가능할까요?</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>동의대식 2.92등급인데 교과전형 추합으로 가능할까요??</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>음... 되더라도 마지막 정도일 것 같아요 ㅠㅠ</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>평교과 어때요?</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>안녕하세요 :) 평교과 학생입니다.
-우선 평교과에서는 크게 두 가지로 전공이 이루어져요. 평생교육, 청소년상담입니다. 취득할 수 있는 자격증은 총 4개가 있구여(평생교육사, 청소년지도사, 청소년상담사, 전문상담교사- 이건 교직이수 해야 돼요.) 진로 분야도 자격증에 맞게 평생교육, 청소년지도, 청소년상담, 전문상담교사 등이 있어요. 학과 분위기는 전체적으로 공부를 엄청 열심히 해요! 그러다보니 본인이 열심히 공부하지 않으면 학점받기 어려울 수도 있습니다.(이건 어느 학과든 마찬가지일 거예요.) 교수님들 다 너무 좋아요ㅎㅎ 그래서 저는 매우 만족 합니다. 특히 졸업해도 자격증 한 개 나올까 말까하는 과가 수두룩한데 최대 4개의 자격증을 취득할 수 있으니깐 취업하는 데 있어서 큰 도움이 될 거예요! 질문자님 궁금증이 해결 되었나 모르겠네요.. 궁금한 거 있으면 답글로 더 물어보세요 :)</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>동의대 vs 인제대 유교과</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>두개다 붙었는데 어딜가야할까요??ㅠㅠ 지역은 동의가 괜찮을꺼같은데.. 동의대에서 유교과 잘밀어주나요?? 취업같은거는 어떤가요??</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>잘은 모르지만 수업 들으러갔었는데 강의실 시설부터 다름. 그리고 학과당 22명? 20명 초반인데 2인문관 5층 전체를 유교과가 씀.. 이것만 봐도 학교에서 밀어주는 학과인건 알 수있음 그리고 수업 들었을때 대학평가에서 동의대 유교과가 A받았다고 했음</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>동의대 평교과 청소년지도사</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>부산 지역 청소년수련관 수련원에 졸업생 선배 없는 곳이 드물어요 졸업생 중 청소년 분야 취업이 더 많습니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>유아교육과 동아리</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>학과동아리로 부속어린이집에 봉사가는 봉사동아리, 임용공부하는 동아리, 인형극 같은 활동하는 동아리, 등등 있어</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>동의대 4년대 유아교육과 vs 울과대 3년대 유아교육과</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>제가 울산에 거주하고 있고 동의대 4년제 유아교육과랑 울과대 3년제 유아교육과를 붙었는데 어떤 대학을 선택하는 것이 좋을까요...?</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>통학,긱사생활 힘들 것 같다 가까운데가 최고다 하면  울과대 선택 vs 4년동안 배울꺼 3년에 배울려면 좀 빡빡하기고하고 사범학과라 취업했을때 호봉차이가 나니까 동의대 선택
 입시 수고했고!!! 니가 다닐 학교니까 너가 가고싶은데 선택해!!!!!!</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>입시</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>안녕하세요 제가 수능으로 대학을 갈려합니다.. ! 유아교육과를 진학하고 싶은데 최저수능점수가 있나요? 무슨 과목을 보는지 , 최소 몇등급해야지 갈수있는지 궁금해요</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>수능으로 여기 올 바에 열심히 해서 더 좋은 데 가셈 제발 진짜 여기 왜 오는지 모르겠다... 그래도 오고 싶다고 하면 최소 3-4는 떠야 안정적일 듯</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>학교생활우수자 4.0</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>학교생활우수자 4.0이면 추합되나요?</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>면접 잘 보면 추추추추합으로 가능할듯</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>학생부 종합 면접 질문이요!!</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>1. 시사관련 질문은 거의 안했던 것 같아요. 생기부 질문에만 제대로 대답할 수 있으면 좋을 것 같습니다 왜 이 학과를 지망하는지에 대한 이유도 자세히 생각해두시면 도움이될거같네요(..)
-2. 저도 학종으로 붙었는데 진로희망 다 다른거였어요 왜 그런지 물어볼 순 있는데 잘 연관지어서 말씀하시는게 좋을 거 같습니다
-3. 공통질문말고 다른 질문은 많이 안했던걸로 기억해요 자신감 있는 태도로 이 학교에 오면 뭘 할건지, 진로희망에 대해 얘기했다면 그 진로가 뭘하는지는 제대로 알고 있어야할 것 같아요
-좋은 결과있길 바랍니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>답변부탁드려욥 🥰</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1. 버스타고 다니면 그냥 다닐만해요
-2. 이건 잘 모르겠어요.
-3. 효민1기숙사(교환학생 체대생) 을 제외한 효민2기숙사(남녀전체), 효민여자기숙사, 행복기숙사(남녀전체)는 모두 신입생을 가장 많이 뽑는답니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>내신 4.83</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>유교과 지역인재로 넣을까 생각중인데 
+면접은 경쟁률이 넘 쎄고해서 
+가능성이 있을까여....ㅠ</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>전년도 성적이 몇 등급 컷이었어요?? 
 근데 웬만해선 안 될 것 같네요ㅠㅠ</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>동의대식 3.58인데요...</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>종합 가능할까요...??ㅜㅜ 아니면 어떤 전형으로 넣는게 좋을 까요.. 지역인재 가능해요</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>교과는 안 될 것 같고, 전년도 결과랑 경쟁률 보시고 최대한 가능한 쪽이 나을 것 같아요.</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>편입 생각 있어서 질문드려요!</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>20학번이라서 정확하게는 몰라서 아는 것만 답변해드릴게요ㅜ
-3. 20학번기준으로는 거의 다 20대 초반입니다.
-4. 정확히는 모르겠지만 1학년 전공과목 기준으로 사복 학과에서 복 전하는 건 못 본 것 같습니다.
-5. 개인 스타일이랑 경제적으로 다를 거 같습니다! 개인적으로 기숙사가 좋을 거 같습니다
-6. 동의대가 확실히 더 좋다고 생각합니다
-7. 꼭대기에서 한번돌고 젤 마지막 정류장에서 조금만 걸어가시면 되요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>교과전형 최초합격자 가능할까요?</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>일단 합격 하실 것 같은데, 최초합까지는 모르겠네요ㅠㅠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>동의대식 3.83 급해요 제발 ㅠㅠ</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>작년에도 그렇고 여태동안 입결은 평생교육•청소년상담학과가 더 높긴 했어요. 그리고 최초합까지는 모르겠지만 추합으로는 둘 다 가능하다고 봅니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>동의대 유아교육과 교과전형</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>동의대 내신산출 3.8 나오고 생기부는 미디어쪽이라 종합 불가능해요... ㅠㅠ
+3.8 유교과 추합으로도 좀 많이 무리인가요.... 그냥 다른 학과 지원할까요?</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>타 대학 언급 죄송합니다 ㅠ</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>꿈이 청소년지도사면 무조건 동의대입니당 ㅎㅎ 청지사 청소년상담사 평생교육사 배워용 그리고 복전하시면 사복2급까진 가능합니당 1급은 시험 ㅠㅠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>임용 관련 지원</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>소신으로 하나 써볼까 하는데 임용 관련 지원 있는지 궁금해요! 있다면 어떤건가요 ??</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>특성화고 전형</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>동의대 기준으로 2.58 이면 특성화고 전형으로 입학 할 수 있나요...?</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>특성화 전형으로 하면 10000퍼센트 탈락 학생부종합 지역인재2로 지원하세요 저 그렇게해서 옴</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>청소년 상담학과 수시</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>반갑습니다. 언제나 너의 곁에 WE-DEU 동의대학교 입학홍보대사 강다현입니다💙
-평생교육•청소년상담학과 작년 [일반고교과전형] 최초등록자 평균은 2.41, 표준편차는 0.51이였으며, 최종등록자 기준 평균은 3.63, 표준편차는 0.57이였습니다. 질문자님은 2.68이기 때문에 전년도 기준으로 [일반고교과전형] 최초합격 가능한 등급대입니다. 하지만 전형결과는 매년 차이가 있기 때문에 최초합격 예측에는 어려움이 있습니다😭
-동의대학교는 여러 전형간의 복수지원이 가능하기 때문에 입학안내 홈페이지에 올라와 있는 수시모집 요강 참고해주시면 보다 더 정확한 정보 얻으실 수 있습니다❗️
-궁금한 점 있으시면 [동의대학교 입학홍보대사 WE-DEU] 페이스북 메신저 또는 인스타그램 다렉으로 연락주세요📩 감사합니다💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>지역인재종합</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>면접 보나요? 본다면 생기부도 보나요?? 생기부가 안 좋아서요ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>반갑습니다! 언제나 너의 곁에 WE-DEU !
 💙 동의대학교 입학홍보대사 안연수입니다 💙
@@ -1946,49 +2118,92 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>학생부종합전형으로 지원</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>제가 3학년 1학기까지 성적이 4.81정도 나오는데 학생부 종합전형으로 지원하면 합격할 가능성이 있을까요? ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>3등급은 되야 가망있어요.. 그정도면 왠만한 일반 학과고 떨어질수 있어요.</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>내신 5후반</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>교과랑 종합 넣어보기는 할껀데 
+뭐가 더 가능성있을까요,,?
+안될건 알지만 조금이라도 가능성있는거 말해주세요..</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>안타깝지만 진짜 둘다 희망없어요ㅠ 진짜 정 오고 싶으면 정시준비하세요.</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>교차지원</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>제가 이과인데 교차지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>학생부종합전형으로</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2021대학 입시 준비하고 있는 고3입니다. 동의대 유아교육과에 가고 싶은데 3학년 1학기까지 성적이 4.95가 나와요
+학생부종합전형으로 저 성적이면 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>안녕하세요! 언제나 너의 곁에 WE DEU 동의대학교 입학홍보대사 이준아 입니다!💙
 학생부 종합전형으로 유아교육과를 준비중이시네요~ 
@@ -2000,192 +2215,139 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>학생부종합(학교생활우수자)</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>학교생활우수자 전형은 특성화고는 못 넣나요??</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>네 학교생활우수자전형은 일반고 전형이에요. 특성화고는 특성화고 전형으로 지원가능해요!</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>내신 6점초</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>내신 성적 6점초반대인데 학종으로 불가능하겠죠?..</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>정시열심히하셔서 오시면 되죠 !!! 꼭 포기하시지 마시구 끝까지 해봐요 !!</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>동의대 평생교육•청소년상담학과</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>학종으로 잘 되어있으면 가능할 수도있을 것 같아요~!</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>동의대</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>부산에서는 중하위권에 속해요 만약 거주지역 대학이 똑같은 수준이라면 그쪽으로 가는거 추천해요</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>유아교육과 동아리나 행사 필수인가요??</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>동아리는 필수인데 행사는 필참 아니에용</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>몇등급 나와야 합격 가능성 있나요?</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>반갑습니다 동의대학교 입학홍보대사 WE-DEU입니다💙
-평생교육청소년상담학과의 2019학년도 수시모집 결과 알려드리겠습니다!
-&amp;lt;학생부교과&gt;
-- 최초합격자 2.19등급(표준편차0.44)
-- 최종등록자 2.99등급(표준편차0.70)
-위 결과는 2020학년도 학생부교과성적 반영방법(상위 12과목)을 적용한 시뮬레이션 데이터 입니다.
-&amp;lt;학생부종합&gt;
-- 학생부 교과성적(계열별 전과목) 4.89등급(표준편차0.44)
-학생부종합전형은 생기부의 꿈과 끼, 인성, 학업역량의 3가지 영역을 종합적으로 평가하는 전형입니다! 교과성적은 학업역량 영역에서 학업 태도 등과 함께 전반적으로 평가되어 반영됩니다😊
-2020학년도의 입시결과는 동의대학교 입학처 홈페이지(http://ipsi.deu.ac.kr/)의 '수시모집&gt;입시 전형결과'에 게시될 예정입니다! 참고해주시고, 원하시는 결과 얻길 바라겠습니다😊💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>유아교육과 분위기 괜찮나요??</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>동의 청소년상담 동서 사회복지학부 동명 상담심리</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>동의대가 나열된 학교 중 좀 더 인지도 있지않을까요?</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>유아교육과</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>유교과 가면 유치원 정교사자격증 2급 일정성적만 유지하면 인원상관없이 다 주나요 아니면 몇 명만 추려서 주나요? 그리고 신라대 유교과가 낫나요 동의대 유교과가 낫나요?</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>동의대가 훨씬 좋다고 생각합니당 !!</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>취업</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>자기가 꼭 하고싶은거 아니라면
-간호학과 가십시오..</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>부속 어린이집 있으면 좋은 점이 많나요?</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>어린이집이랑 학과나 동아리 연계해서 활동도 할수있고 실습이나 봉사활동도 할수있어서 좋아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>동의대 유아교육과 경쟁률이 터졌어요ㅜㅜ</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>교과로 동의대 유아교육과에 지원했는데
+경쟁률이 23:1이 되었더라구요..
+제가 배치점에서 0.04정도 차이나서 소신으로
+지원했는데 불안해지네요ㅜㅜ
+경쟁률이 올라가면 합격등급컷도 많이 올라갈까요?
+답해주실 수 없는 질문이라는거 알지만 
+너무 불안해서 물어봐요ㅜㅜ 죄송해요😢</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>추가합격으로 충분히 가능하실 것 같아요!!</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>농어촌교과 2.67</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>합격 가능성 있나요???????????????,,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>농어촌은 몇 명 안 뽑아서 케바케인 것 같음</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>수업이나 분위기 어떤가요</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>수업 2학년부터는 전공위주고, 팀플 많고 과제 많음.
-학과 분위기는 선후배간에 기본적 예의만 지키면 아무도 뭐라고 안함.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>동의대 유교과 괜찮은가요?</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>안녕하세요 동의대 유교과를 지원하려는 고3입니다! 지원이 가능하다고 해서 하려고 하는데 동의대 유교과 괜찮은가요 'ㅅ' 학과 분위기나 전망 군기같은 거 재학생 분들이 생각하기엔 어떤지.. 궁금해요</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>분위기는 여초과라서.. 음음 
 전망은 다른 대학 유교과도 다 비슷비슷할거에요! 
@@ -2193,126 +2355,115 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>동의대식 3.3 교과</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>교과로 가능할까요ㅠㅠ 소신지원 떠서 넣어보려는데</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>가능할 지 확답은 못 드리겠어요. 교과로 3점대면 힘들 것 같은데 오고 싶은 마음이 있으시면 일단 넣어보셔요 :) 저도 희박한 가능성으로 동의대 왔어요ㅎㅎ</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>안녕하세요?</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>이번에 최종등급이 교과로 3.02던데 제가 3등급인데 넣어도 합격가능할까요?</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>3점대 중후반이시면 어려울 것 같아요ㅠㅠ</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>상담학과</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>어떤 과목을 듣냐에 따라 다르죠... 대학교에서 하는 평균만큼은 하는듯</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>내신과 헤어지나요?</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2학년 성적까진 동의대식으로 4.5였고
+3학년 중간고사 등급...계산해봤는데
+문학5,화작5,수학5,영어4,사문4,한지5,국사4
+하 생기부 세특제외하고 다 유아교육과로 맞춰놔서 수시 버리기 너무 아깝네요 학종으로 가려해도 가망없겠죠?정말 정시 등급이나 다름없네요 하하...</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>4등급 중반대였는데 합격했어요.
 물론 인문대 소수과 학종기준이니까 참고만 하세요.</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>유아교육과 못잃는데ㅜ</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>지금은 대학 가는게 저 높은 산을 건너가는 것 같지만
-막상 대학오면 정말 별거없어요 ^^
-성적이 안된다면 면접이나 다른 유형을 찾아보세요 ! 생각보다 많을거예요~ 
-그리고 전문대라고 무시 할 건 전-혀 없습니다. 
-4년제이든 전문대이든 내가 어떻게 하냐에 따라 다르니 학교 신경쓰지말고 ~ 지금은 현실에 충실하게 떨어진 내 마음을 올려 할수있다는 마음가지고 끝까지 최선을 다해봐요 !</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>문이과</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>저도 이과였는데 유아교육과 왔어요!! 혹시 모르니 지원하고 싶은 대학교 교차지원이 가능한지 알아보고 선택하세요!  근데 거의 교차 지원은 다 되는걸로 알고 있어요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>내신 한국사</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>사탐으로 포함되나요?</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>원하는 대학교 pdf 한번 보세요!  거기에 기준 나와있을껄요.</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>수학이 너무 싫어요</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>정시로 오세요. 200일 남았으니까 열심히 하고 다른 학교 가시면 돼요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>유교과 어떤가용</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>몰랐는데 우리학교 유교 취업 잘되는거 같음</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>유교과 입시</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>고1 국수영 평균이 6등급인데 유교과 들어갈 수 있을까요?ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>고1이면 성적 많이 올릴 수 있어요
 고1때 평균 4였는데
@@ -2321,76 +2472,69 @@
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>장단점</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>오지마 그냥.. 공부 열심히해서 부산대 아니면 부경대를 가 독하게 공부해 괜찮아 할 수 있어 동의대 학교 인식도 별로 좋은편이 아니라서 무시 당할 때도 많고 그러다가 회의감 드는 순간도 많아. 대학로망 같은거 진짜 하나도 없더라.  사람들? 좋은 사람들만 만나면 좋겠지만 난 개판들만 봐서.... (교수포함) 동의대지만 동의인 거른다..;; (물론 50명중 1명은 괜찮은편^_^!!) 아 그리고 통학러는 진지하게 다시 생각해봐.......</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>저 포기해야되나여,,</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>일반고교과 전형으로 4.5밖에 안나오는ㄷ 진짜 이정도면 희망어죠는건가요?3학년1학기에 얼마나 더 잘해야괴나요ㅠㅠㅠㅠㅠㅠㅠㅠㅠ마지막 중간고사도 다가오는데 걱정이네요...</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>아니여 진짜 할수 있어요 그리고 종합으로 넣어요.  자소서 열라 잘쓰세요 8월 부터 자소서 쓰고 계속 첨삭하고 면접 준비하세요 8월 달 이전에는 무조건 공부만 하세요
 만약 모의고사가 내신이랑 비교 했을때 1.5배에서2배 정도 성적이 더좋으면 정시로 가요 근데 똑같자나요? 진짜 이 악물고 내신  등급 바꿔야해요 예를 들면 국어가4등급이면 2등급이나1등급으로 시험 치는 과목들 등급을 바꿔야지 님이 그나마 원하는 대학 넣을수 있을거예요 화이팅!</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>등급 얼마정도 받아야 유아교육 안전빵일까요?</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>지금 동의대식으로 내신산출하면 2.8정도 나오는데 여기서 더 올려야하나요? 아직 18년도 입결밖에 안나와있어서 감을 못잡겠어용</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>동의대 말고 다른 대학 가세요 그정도 성적이면 동의대 오지말고 딴대학 가서 더 열심히 하세요 여긴 오지마요..
 좋긴 좋은데 좋은데... 다른 대학이 훨 더 좋을 거예요 . 안전 빵이라도 쓰지마요. 그래도 경성대 나 동아대 쓰세요. 충분히 들어갈수 있어요  그 학점 유지하면 말이죠.. 저도 여기 높은 줄알고 넣었다가 다̐̈ 들어 올수 있는 곳이더군요</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>교직이수</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>상담학과는 아니지만 교직이수 하는 학생입니다
-ㄹㅇ 뒤질거같네요^ㅋ^</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>학과 분위기 어떤가요?!</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>전공 살린 취업률 높은 편이고 선후배간 군기 전혀 없어서 분위기도 정말 좋아요! 성비는 7:3? 8:2? 정도예요~</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>정시</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>총 몇등급 이내에 들어야 안전빵인가요?</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>안녕하세요. 반갑습니다! 동의대학교 입학홍보대사 WE-DEU입니다😊😊
 에브리타임으로 문의주셨는데, 페이스북 wedeu890로 페이스북메세지 보내주시거나 인스타그램 we_deu로 DM 보내주시면 상세하게 답변도와드리겠습니다❤️
@@ -2398,77 +2542,122 @@
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>도와주세요</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>유아교육과 가고희망하는 고2 문과생입니다,제가 진짜 미쳐서 드디어 정신차리게되네요;;일단 1학년땐 거의 4~5등급이라 정말 답없고 2학년 1학기때 총내신은 4.42이고 2학기 중간고사 내신은 3.9로 올렸는데 아직 엄청 부족하다는거 알고있습니다,제가 기말때 최대한 몇등급 까지 올려서 3학년1학기때까지 유지해야될까요?진짜 유아교육과 너무 간절해요,정시로 가기엔 모의고사 점수가 4~5등급이라 형편없어서 무리구요...저 어떡하면 좋을까요?</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>안녕하세요! 반갑습니다 동의대학교 입학홍보대사 We DEU입니다❤ 에브리타임으로 문의주셨는데, 페이스북 Wedeu890이나 인스타그램 We_deu 검색하셔서 메신저나 다이렉트 보내주시면 더욱 상세하게 답변해드리겠습니다😄</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>교과점수산출할때</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>고2문과생인데 산출할때 한국사 일본어 생명과학 기가 등등 넣을수있나요?그리고 한국사 중요한가요??ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>우리땐 전과목 다넣었는데.  룰루랄라
 ㅅㄴㄷㅎ</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>등급컷</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1학년때는 대략 5등급이고
+2학년1학기껀 4등급인데 최대한 열심히해서 2~3등급으로 올리면 가능성있을까요?ㅠ
+꼭 부산권 가야되고 수시로 가고싶은데...도와주세요ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>당여나져 할 수 있을 거예요!*˙︶˙*)ﾉ</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>고3 성적, 지역인재2!</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>혹시 지역인재2 전형으로 가신 분 계신가요...!!!
+그리구 이 전형으로 유교과 갈라면 전과목 보나요 국영수사 보나요? 계열별 전과목이라구 돼있던데 이건 국영수사를 뜻하는 걸까요!
+아 그리구 지역인재2 든 교과든 종합이든 국영수사는 3.68, 전과목은 4.11 인데 유교과 갈 수 있을까요!
+선배님들 존경합니다ㅠㅠ❤️</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>계열별 전과목이라서 유교과를 지원하신다면 국영수사 전과목 반영입니다.</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>유아교육과</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>정시등급</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>제가 정시로 갈려하는데요
+국어 수학 사탐과목 해서 어느정도 나와야 할까요 
+한국사는 가산점 안들어가죠?</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>안녕하세요 동의대학교 입학홍보대사 Wedeu 입니다💙
 에브리타임으로 문의 주셨는데용 페이스북Wedeu890이나 인스타그램We_deu검색하셔서 메신저나 다이렉트 보내주시면 더욱 상세하게 답변해 드리겠습니다!😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>성적관련 질문이요</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>저 지각한번있는데도 98점으로 A+ 이었어용</t>
         </is>
       </c>
     </row>
